--- a/table/折800 - 表设计-冷佳峰.xlsx
+++ b/table/折800 - 表设计-冷佳峰.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151">
   <si>
     <t>表名</t>
   </si>
@@ -151,9 +151,54 @@
     <t>balance</t>
   </si>
   <si>
+    <t>decimal</t>
+  </si>
+  <si>
+    <t>5、2</t>
+  </si>
+  <si>
     <t>余额</t>
   </si>
   <si>
+    <t>等级表</t>
+  </si>
+  <si>
+    <t>gid</t>
+  </si>
+  <si>
+    <t>自增ID</t>
+  </si>
+  <si>
+    <t>grade_name</t>
+  </si>
+  <si>
+    <t>等级名称</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>达到该等级的最大消费额</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>达到该等级的最小消费额</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>收货地址表</t>
+  </si>
+  <si>
+    <t>普通索引</t>
+  </si>
+  <si>
+    <t>收货地址名</t>
+  </si>
+  <si>
     <t>goods</t>
   </si>
   <si>
@@ -172,9 +217,6 @@
     <t>goods_name</t>
   </si>
   <si>
-    <t>普通索引</t>
-  </si>
-  <si>
     <t>商品名称</t>
   </si>
   <si>
@@ -223,12 +265,6 @@
     <t>present_price</t>
   </si>
   <si>
-    <t>decimal</t>
-  </si>
-  <si>
-    <t>5、2</t>
-  </si>
-  <si>
     <t>商品现价</t>
   </si>
   <si>
@@ -250,7 +286,7 @@
     <t>是否支持7天免退货  0支持  1不支持</t>
   </si>
   <si>
-    <t>cate</t>
+    <t>category</t>
   </si>
   <si>
     <t>商品分类</t>
@@ -289,9 +325,6 @@
     <t>fid</t>
   </si>
   <si>
-    <t>自增ID</t>
-  </si>
-  <si>
     <t>region</t>
   </si>
   <si>
@@ -304,37 +337,136 @@
     <t>该地区是否支持免运费  0免  1不免</t>
   </si>
   <si>
-    <t>等级表</t>
-  </si>
-  <si>
-    <t>gid</t>
-  </si>
-  <si>
-    <t>grade_name</t>
-  </si>
-  <si>
-    <t>等级名称</t>
-  </si>
-  <si>
-    <t>max</t>
-  </si>
-  <si>
-    <t>达到该等级的最大消费额</t>
-  </si>
-  <si>
-    <t>min</t>
-  </si>
-  <si>
-    <t>达到该等级的最小消费额</t>
-  </si>
-  <si>
-    <t>address</t>
-  </si>
-  <si>
-    <t>收货地址表</t>
-  </si>
-  <si>
-    <t>收货地址名</t>
+    <t>商品分类表</t>
+  </si>
+  <si>
+    <t>cate_id</t>
+  </si>
+  <si>
+    <t>cate_name</t>
+  </si>
+  <si>
+    <t>分类名称</t>
+  </si>
+  <si>
+    <t>cate_attr</t>
+  </si>
+  <si>
+    <t>单选属性/多选属性  0单选  1多选</t>
+  </si>
+  <si>
+    <t>parent</t>
+  </si>
+  <si>
+    <t>是否是父级分类  0为最高级 默认为0</t>
+  </si>
+  <si>
+    <t>attribute</t>
+  </si>
+  <si>
+    <t>属性名表</t>
+  </si>
+  <si>
+    <t>attr_id</t>
+  </si>
+  <si>
+    <t>商品ID</t>
+  </si>
+  <si>
+    <t>attr_name</t>
+  </si>
+  <si>
+    <t>属性名称</t>
+  </si>
+  <si>
+    <t>库存</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>显示类型  0图片  1文字</t>
+  </si>
+  <si>
+    <t>remarks</t>
+  </si>
+  <si>
+    <t>备注说明</t>
+  </si>
+  <si>
+    <t>add_time</t>
+  </si>
+  <si>
+    <t>添加时间</t>
+  </si>
+  <si>
+    <t>update_time</t>
+  </si>
+  <si>
+    <t>修改时间</t>
+  </si>
+  <si>
+    <t>add_person</t>
+  </si>
+  <si>
+    <t>添加人</t>
+  </si>
+  <si>
+    <t>update_person</t>
+  </si>
+  <si>
+    <t>修改人</t>
+  </si>
+  <si>
+    <t>is_must</t>
+  </si>
+  <si>
+    <t>是否为必须属性 0是 1否</t>
+  </si>
+  <si>
+    <t>is_crux</t>
+  </si>
+  <si>
+    <t>是否为关键属性 0是 1否</t>
+  </si>
+  <si>
+    <t>is_multiselect</t>
+  </si>
+  <si>
+    <t>是否为多选属性 0是 1否</t>
+  </si>
+  <si>
+    <t>attr_value</t>
+  </si>
+  <si>
+    <t>属性值表</t>
+  </si>
+  <si>
+    <t>属性名ID</t>
+  </si>
+  <si>
+    <t>value_name</t>
+  </si>
+  <si>
+    <t>属性值</t>
+  </si>
+  <si>
+    <t>spec</t>
+  </si>
+  <si>
+    <t>规格表</t>
+  </si>
+  <si>
+    <t>spec_name</t>
+  </si>
+  <si>
+    <t>规格名称</t>
+  </si>
+  <si>
+    <t>spec_value</t>
+  </si>
+  <si>
+    <t>规格值</t>
   </si>
 </sst>
 </file>
@@ -342,10 +474,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -367,14 +499,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -383,6 +507,21 @@
       <color theme="0"/>
       <name val="DengXian"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -402,12 +541,35 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="DengXian"/>
@@ -423,16 +585,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -445,7 +600,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
@@ -461,14 +615,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -479,15 +625,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -501,15 +639,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -524,7 +656,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -536,19 +716,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -560,13 +770,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -578,43 +782,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -632,19 +812,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -656,60 +830,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -733,39 +865,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -785,17 +889,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -811,17 +904,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -843,155 +932,185 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1002,7 +1121,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1324,10 +1449,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O58"/>
+  <dimension ref="A1:O105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="I48" sqref="I48"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="G92" sqref="G92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="27" customHeight="1"/>
@@ -1632,16 +1757,16 @@
         <v>44</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="3">
-        <v>10</v>
+        <v>45</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:7">
@@ -1649,13 +1774,13 @@
         <v>0</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>4</v>
@@ -1696,7 +1821,7 @@
         <v>14</v>
       </c>
       <c r="C20" s="3">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>15</v>
@@ -1714,40 +1839,40 @@
         <v>51</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C21" s="3">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:7">
       <c r="A22" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C22" s="3">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:7">
       <c r="A23" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>14</v>
@@ -1759,540 +1884,576 @@
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="1:7">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+    </row>
+    <row r="25" customHeight="1" spans="1:7">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+    </row>
+    <row r="26" customHeight="1" spans="1:7">
+      <c r="A26" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="24" customHeight="1" spans="1:7">
-      <c r="A24" s="3" t="s">
+      <c r="C26" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" s="3">
-        <v>5</v>
-      </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="25" customHeight="1" spans="1:7">
-      <c r="A25" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25" s="3">
-        <v>1</v>
-      </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="26" customHeight="1" spans="1:7">
-      <c r="A26" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C26" s="3">
-        <v>255</v>
-      </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3" t="s">
-        <v>63</v>
-      </c>
+      <c r="G26" s="3"/>
     </row>
     <row r="27" customHeight="1" spans="1:7">
-      <c r="A27" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" s="3">
-        <v>5</v>
-      </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3" t="s">
-        <v>65</v>
+      <c r="A27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:7">
       <c r="A28" s="3" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C28" s="3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
+      <c r="F28" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="G28" s="3" t="s">
-        <v>67</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:7">
       <c r="A29" s="3" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>70</v>
+        <v>18</v>
+      </c>
+      <c r="C29" s="3">
+        <v>50</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
-      <c r="F29" s="3" t="s">
-        <v>52</v>
-      </c>
+      <c r="F29" s="3"/>
       <c r="G29" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="30" customHeight="1" spans="1:7">
-      <c r="A30" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="31" customHeight="1" spans="1:7">
-      <c r="A31" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C31" s="3">
-        <v>255</v>
-      </c>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:7">
-      <c r="A32" s="3" t="s">
-        <v>76</v>
+      <c r="A32" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C32" s="3">
-        <v>1</v>
-      </c>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3" t="s">
-        <v>77</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G32" s="3"/>
     </row>
     <row r="33" customHeight="1" spans="1:7">
-      <c r="A33" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C33" s="3">
-        <v>5</v>
-      </c>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3" t="s">
-        <v>79</v>
+      <c r="A33" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:7">
       <c r="A34" s="3" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="C34" s="3">
-        <v>10</v>
-      </c>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
+        <v>11</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="F34" s="3"/>
       <c r="G34" s="3" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:7">
       <c r="A35" s="3" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C35" s="3">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
+      <c r="F35" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="G35" s="3" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:7">
       <c r="A36" s="3" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C36" s="3">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:7">
       <c r="A37" s="3" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="C37" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
       <c r="G37" s="3" t="s">
-        <v>87</v>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="1:7">
+      <c r="A38" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" s="3">
+        <v>5</v>
+      </c>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="1:7">
+      <c r="A39" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C39" s="3">
+        <v>1</v>
+      </c>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="1:7">
-      <c r="A40" s="2" t="s">
-        <v>0</v>
+      <c r="A40" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="G40" s="3"/>
+        <v>18</v>
+      </c>
+      <c r="C40" s="3">
+        <v>255</v>
+      </c>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="41" customHeight="1" spans="1:7">
-      <c r="A41" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>12</v>
+      <c r="A41" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" s="3">
+        <v>5</v>
+      </c>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="1:7">
       <c r="A42" s="3" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C42" s="3">
-        <v>5</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>15</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
       <c r="F42" s="3"/>
       <c r="G42" s="3" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="1:7">
       <c r="A43" s="3" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C43" s="3">
-        <v>10</v>
+        <v>45</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
       <c r="F43" s="3" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="1:7">
       <c r="A44" s="3" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C44" s="3">
-        <v>1</v>
+        <v>45</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
       <c r="G44" s="3" t="s">
-        <v>95</v>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" spans="1:7">
+      <c r="A45" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C45" s="3">
+        <v>255</v>
+      </c>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="46" customHeight="1" spans="1:7">
+      <c r="A46" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C46" s="3">
+        <v>1</v>
+      </c>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="1:7">
-      <c r="A47" s="2" t="s">
-        <v>0</v>
+      <c r="A47" s="3" t="s">
+        <v>90</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="G47" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="C47" s="3">
+        <v>5</v>
+      </c>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="48" customHeight="1" spans="1:7">
-      <c r="A48" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E48" s="2" t="s">
+      <c r="A48" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C48" s="3">
         <v>10</v>
       </c>
-      <c r="F48" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>12</v>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="1:7">
       <c r="A49" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="C49" s="3">
-        <v>5</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>15</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
       <c r="F49" s="3"/>
       <c r="G49" s="3" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="1:7">
       <c r="A50" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C50" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
-      <c r="F50" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="F50" s="3"/>
       <c r="G50" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="1:7">
       <c r="A51" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="C51" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
       <c r="G51" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="52" customHeight="1" spans="1:7">
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+    </row>
+    <row r="53" customHeight="1" spans="1:7">
+      <c r="A53" s="4"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+    </row>
+    <row r="54" customHeight="1" spans="1:7">
+      <c r="A54" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F54" s="3" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="52" customHeight="1" spans="1:7">
-      <c r="A52" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C52" s="3">
-        <v>5</v>
-      </c>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3" t="s">
-        <v>103</v>
-      </c>
+      <c r="G54" s="3"/>
     </row>
     <row r="55" customHeight="1" spans="1:7">
       <c r="A55" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>104</v>
+        <v>6</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>3</v>
+        <v>8</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="G55" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="56" customHeight="1" spans="1:7">
-      <c r="A56" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>12</v>
+      <c r="A56" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C56" s="3">
+        <v>5</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="57" customHeight="1" spans="1:7">
       <c r="A57" s="3" t="s">
-        <v>13</v>
+        <v>103</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C57" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
       <c r="F57" s="3" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>16</v>
+        <v>104</v>
       </c>
     </row>
     <row r="58" customHeight="1" spans="1:7">
       <c r="A58" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="C58" s="3">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
@@ -2301,14 +2462,757 @@
         <v>106</v>
       </c>
     </row>
+    <row r="61" customHeight="1" spans="1:7">
+      <c r="A61" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G61" s="3"/>
+    </row>
+    <row r="62" customHeight="1" spans="1:7">
+      <c r="A62" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" customHeight="1" spans="1:7">
+      <c r="A63" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C63" s="3">
+        <v>11</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="64" customHeight="1" spans="1:7">
+      <c r="A64" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C64" s="3">
+        <v>10</v>
+      </c>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="65" customHeight="1" spans="1:7">
+      <c r="A65" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C65" s="3">
+        <v>1</v>
+      </c>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="66" customHeight="1" spans="1:7">
+      <c r="A66" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C66" s="3">
+        <v>5</v>
+      </c>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="67" customHeight="1" spans="1:7">
+      <c r="A67" s="4"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+    </row>
+    <row r="68" customHeight="1" spans="1:7">
+      <c r="A68" s="4"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+    </row>
+    <row r="69" customHeight="1" spans="1:7">
+      <c r="A69" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G69" s="3"/>
+    </row>
+    <row r="70" customHeight="1" spans="1:7">
+      <c r="A70" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" customHeight="1" spans="1:7">
+      <c r="A71" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C71" s="5">
+        <v>11</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F71" s="5"/>
+      <c r="G71" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="72" customHeight="1" spans="1:7">
+      <c r="A72" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C72" s="3">
+        <v>11</v>
+      </c>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="73" customHeight="1" spans="1:7">
+      <c r="A73" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C73" s="3">
+        <v>10</v>
+      </c>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="74" customHeight="1" spans="1:7">
+      <c r="A74" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C74" s="3">
+        <v>5</v>
+      </c>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="75" customHeight="1" spans="1:7">
+      <c r="A75" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C75" s="3">
+        <v>1</v>
+      </c>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3"/>
+      <c r="F75" s="3"/>
+      <c r="G75" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="76" customHeight="1" spans="1:7">
+      <c r="A76" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C76" s="3">
+        <v>8</v>
+      </c>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="3"/>
+      <c r="G76" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="77" customHeight="1" spans="1:7">
+      <c r="A77" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C77" s="3">
+        <v>255</v>
+      </c>
+      <c r="D77" s="3"/>
+      <c r="E77" s="3"/>
+      <c r="F77" s="3"/>
+      <c r="G77" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="78" customHeight="1" spans="1:7">
+      <c r="A78" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C78" s="6">
+        <v>10</v>
+      </c>
+      <c r="D78" s="6"/>
+      <c r="E78" s="6"/>
+      <c r="F78" s="6"/>
+      <c r="G78" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="79" customHeight="1" spans="1:7">
+      <c r="A79" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C79" s="6">
+        <v>10</v>
+      </c>
+      <c r="D79" s="6"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="6"/>
+      <c r="G79" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="80" customHeight="1" spans="1:7">
+      <c r="A80" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C80" s="6">
+        <v>10</v>
+      </c>
+      <c r="D80" s="6"/>
+      <c r="E80" s="6"/>
+      <c r="F80" s="6"/>
+      <c r="G80" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="81" customHeight="1" spans="1:7">
+      <c r="A81" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C81" s="6">
+        <v>10</v>
+      </c>
+      <c r="D81" s="6"/>
+      <c r="E81" s="6"/>
+      <c r="F81" s="6"/>
+      <c r="G81" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="82" customHeight="1" spans="1:7">
+      <c r="A82" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C82" s="6">
+        <v>1</v>
+      </c>
+      <c r="D82" s="6"/>
+      <c r="E82" s="6"/>
+      <c r="F82" s="6"/>
+      <c r="G82" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="83" customHeight="1" spans="1:7">
+      <c r="A83" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C83" s="6">
+        <v>1</v>
+      </c>
+      <c r="D83" s="6"/>
+      <c r="E83" s="6"/>
+      <c r="F83" s="6"/>
+      <c r="G83" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="84" customHeight="1" spans="1:7">
+      <c r="A84" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C84" s="6">
+        <v>1</v>
+      </c>
+      <c r="D84" s="6"/>
+      <c r="E84" s="6"/>
+      <c r="F84" s="6"/>
+      <c r="G84" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="87" customHeight="1" spans="1:7">
+      <c r="A87" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="G87" s="3"/>
+    </row>
+    <row r="88" customHeight="1" spans="1:7">
+      <c r="A88" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="89" customHeight="1" spans="1:7">
+      <c r="A89" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C89" s="5">
+        <v>11</v>
+      </c>
+      <c r="D89" s="5"/>
+      <c r="E89" s="5"/>
+      <c r="F89" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G89" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="90" customHeight="1" spans="1:7">
+      <c r="A90" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C90" s="6">
+        <v>20</v>
+      </c>
+      <c r="D90" s="6"/>
+      <c r="E90" s="6"/>
+      <c r="F90" s="6"/>
+      <c r="G90" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="91" customHeight="1" spans="1:7">
+      <c r="A91" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C91" s="3">
+        <v>255</v>
+      </c>
+      <c r="D91" s="3"/>
+      <c r="E91" s="3"/>
+      <c r="F91" s="3"/>
+      <c r="G91" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="92" customHeight="1" spans="1:7">
+      <c r="A92" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C92" s="6">
+        <v>10</v>
+      </c>
+      <c r="D92" s="6"/>
+      <c r="E92" s="6"/>
+      <c r="F92" s="6"/>
+      <c r="G92" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="93" customHeight="1" spans="1:7">
+      <c r="A93" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C93" s="6">
+        <v>10</v>
+      </c>
+      <c r="D93" s="6"/>
+      <c r="E93" s="6"/>
+      <c r="F93" s="6"/>
+      <c r="G93" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="94" customHeight="1" spans="1:7">
+      <c r="A94" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C94" s="6">
+        <v>10</v>
+      </c>
+      <c r="D94" s="6"/>
+      <c r="E94" s="6"/>
+      <c r="F94" s="6"/>
+      <c r="G94" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="95" customHeight="1" spans="1:7">
+      <c r="A95" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C95" s="6">
+        <v>10</v>
+      </c>
+      <c r="D95" s="6"/>
+      <c r="E95" s="6"/>
+      <c r="F95" s="6"/>
+      <c r="G95" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="98" customHeight="1" spans="1:7">
+      <c r="A98" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G98" s="3"/>
+    </row>
+    <row r="99" customHeight="1" spans="1:7">
+      <c r="A99" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="100" customHeight="1" spans="1:7">
+      <c r="A100" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C100" s="3">
+        <v>10</v>
+      </c>
+      <c r="D100" s="3"/>
+      <c r="E100" s="3"/>
+      <c r="F100" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="101" customHeight="1" spans="1:7">
+      <c r="A101" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C101" s="3">
+        <v>20</v>
+      </c>
+      <c r="D101" s="3"/>
+      <c r="E101" s="3"/>
+      <c r="F101" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="102" customHeight="1" spans="1:7">
+      <c r="A102" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C102" s="3">
+        <v>1</v>
+      </c>
+      <c r="D102" s="3"/>
+      <c r="E102" s="3"/>
+      <c r="F102" s="3"/>
+      <c r="G102" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="103" customHeight="1" spans="1:7">
+      <c r="A103" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C103" s="3">
+        <v>8</v>
+      </c>
+      <c r="D103" s="3"/>
+      <c r="E103" s="3"/>
+      <c r="F103" s="3"/>
+      <c r="G103" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="104" customHeight="1" spans="1:7">
+      <c r="A104" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C104" s="3">
+        <v>255</v>
+      </c>
+      <c r="D104" s="3"/>
+      <c r="E104" s="3"/>
+      <c r="F104" s="3"/>
+      <c r="G104" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="105" customHeight="1" spans="1:7">
+      <c r="A105" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C105" s="3">
+        <v>11</v>
+      </c>
+      <c r="D105" s="3"/>
+      <c r="E105" s="3"/>
+      <c r="F105" s="3"/>
+      <c r="G105" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="10">
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="N1:O1"/>
     <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="F61:G61"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="F87:G87"/>
+    <mergeCell ref="F98:G98"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
